--- a/SteelBeam/tabelas.xlsx
+++ b/SteelBeam/tabelas.xlsx
@@ -1792,7 +1792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1862,7 +1862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1904,7 +1904,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1926,9 +1926,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2324,7 +2321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6" t="s">
         <v>460</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>4181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="10" t="s">
         <v>461</v>
       </c>
@@ -2448,7 +2445,7 @@
         <v>6683</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6" t="s">
         <v>462</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>20417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="10" t="s">
         <v>463</v>
       </c>
@@ -2572,7 +2569,7 @@
         <v>10206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6" t="s">
         <v>464</v>
       </c>
@@ -2634,7 +2631,7 @@
         <v>30277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="10" t="s">
         <v>465</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>39930</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="6" t="s">
         <v>466</v>
       </c>
@@ -2758,7 +2755,7 @@
         <v>8222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="10" t="s">
         <v>467</v>
       </c>
@@ -2820,7 +2817,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="6" t="s">
         <v>468</v>
       </c>
@@ -2882,7 +2879,7 @@
         <v>13868</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="10" t="s">
         <v>469</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>32477</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="6" t="s">
         <v>470</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="10" t="s">
         <v>471</v>
       </c>
@@ -3068,7 +3065,7 @@
         <v>69502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="6" t="s">
         <v>472</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>83948</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="10" t="s">
         <v>473</v>
       </c>
@@ -3192,7 +3189,7 @@
         <v>141342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="6" t="s">
         <v>474</v>
       </c>
@@ -3254,7 +3251,7 @@
         <v>166710</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
         <v>475</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>155075</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="6" t="s">
         <v>476</v>
       </c>
@@ -3378,7 +3375,7 @@
         <v>195418</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="10" t="s">
         <v>477</v>
       </c>
@@ -3440,7 +3437,7 @@
         <v>249976</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6" t="s">
         <v>478</v>
       </c>
@@ -3502,7 +3499,7 @@
         <v>317844</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="10" t="s">
         <v>479</v>
       </c>
@@ -3564,7 +3561,7 @@
         <v>385454</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="6" t="s">
         <v>480</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>13735</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="10" t="s">
         <v>481</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>18629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="6" t="s">
         <v>482</v>
       </c>
@@ -3750,7 +3747,7 @@
         <v>22955</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="10" t="s">
         <v>483</v>
       </c>
@@ -18820,7 +18817,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="17.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="16" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="9.147857142857141" customWidth="1" bestFit="1"/>
